--- a/test-data/Base_Test_Invoice.xlsx
+++ b/test-data/Base_Test_Invoice.xlsx
@@ -475,10 +475,10 @@
         <v>CH1</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="str">
         <v>Setup Fee</v>
@@ -493,10 +493,10 @@
         <v>Americas</v>
       </c>
       <c r="N2" t="str">
-        <v>2025-01-01</v>
+        <v>2025-02-15</v>
       </c>
       <c r="O2" t="str">
-        <v>2025-01-01</v>
+        <v>2025-02-15</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="str">
         <v>Test Service Monthly</v>
@@ -543,13 +543,13 @@
         <v>Americas</v>
       </c>
       <c r="N3" t="str">
-        <v>2025-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="O3" t="str">
-        <v>2025-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -575,7 +575,7 @@
         <v>DA2</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -593,13 +593,13 @@
         <v>Americas</v>
       </c>
       <c r="N4" t="str">
-        <v>2025-01-01</v>
+        <v>2025-05-10</v>
       </c>
       <c r="O4" t="str">
-        <v>2025-01-01</v>
+        <v>2025-05-10</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" t="str">
         <v>Test Service Monthly</v>
@@ -643,13 +643,13 @@
         <v>Americas</v>
       </c>
       <c r="N5" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O5" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -675,10 +675,10 @@
         <v>DA1</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="str">
         <v>Setup Fee</v>
@@ -693,10 +693,10 @@
         <v>Americas</v>
       </c>
       <c r="N6" t="str">
-        <v>2025-01-01</v>
+        <v>2025-08-01</v>
       </c>
       <c r="O6" t="str">
-        <v>2025-01-01</v>
+        <v>2025-08-01</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -743,13 +743,13 @@
         <v>Americas</v>
       </c>
       <c r="N7" t="str">
-        <v>2025-01-01</v>
+        <v>2025-09-15</v>
       </c>
       <c r="O7" t="str">
-        <v>2025-01-01</v>
+        <v>2025-09-15</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -775,10 +775,10 @@
         <v>AM2</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="str">
         <v>Setup Fee</v>
@@ -793,13 +793,13 @@
         <v>Americas</v>
       </c>
       <c r="N8" t="str">
-        <v>2025-01-01</v>
+        <v>2025-11-01</v>
       </c>
       <c r="O8" t="str">
-        <v>2025-01-01</v>
+        <v>2025-11-01</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -828,7 +828,7 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" t="str">
         <v>Test Service Monthly</v>
@@ -849,7 +849,7 @@
         <v>2025-01-01</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -875,7 +875,7 @@
         <v>CH2</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -893,10 +893,10 @@
         <v>Americas</v>
       </c>
       <c r="N10" t="str">
-        <v>2025-01-01</v>
+        <v>2025-02-15</v>
       </c>
       <c r="O10" t="str">
-        <v>2025-01-01</v>
+        <v>2025-02-15</v>
       </c>
       <c r="P10">
         <v>3</v>
@@ -928,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="str">
         <v>Test Service Monthly</v>
@@ -943,13 +943,13 @@
         <v>Americas</v>
       </c>
       <c r="N11" t="str">
-        <v>2025-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="O11" t="str">
-        <v>2025-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -975,10 +975,10 @@
         <v>CH1</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" t="str">
         <v>Setup Fee</v>
@@ -993,13 +993,13 @@
         <v>Americas</v>
       </c>
       <c r="N12" t="str">
-        <v>2025-01-01</v>
+        <v>2025-05-10</v>
       </c>
       <c r="O12" t="str">
-        <v>2025-01-01</v>
+        <v>2025-05-10</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1043,13 +1043,13 @@
         <v>Americas</v>
       </c>
       <c r="N13" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O13" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1075,10 +1075,10 @@
         <v>DA2</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" t="str">
         <v>Setup Fee</v>
@@ -1093,10 +1093,10 @@
         <v>Americas</v>
       </c>
       <c r="N14" t="str">
-        <v>2025-01-01</v>
+        <v>2025-08-01</v>
       </c>
       <c r="O14" t="str">
-        <v>2025-01-01</v>
+        <v>2025-08-01</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -1128,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="str">
         <v>Test Service Monthly</v>
@@ -1143,13 +1143,13 @@
         <v>Americas</v>
       </c>
       <c r="N15" t="str">
-        <v>2025-01-01</v>
+        <v>2025-09-15</v>
       </c>
       <c r="O15" t="str">
-        <v>2025-01-01</v>
+        <v>2025-09-15</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1175,7 +1175,7 @@
         <v>DA1</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -1193,13 +1193,13 @@
         <v>Americas</v>
       </c>
       <c r="N16" t="str">
-        <v>2025-01-01</v>
+        <v>2025-11-01</v>
       </c>
       <c r="O16" t="str">
-        <v>2025-01-01</v>
+        <v>2025-11-01</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="str">
         <v>Test Service Monthly</v>
@@ -1249,7 +1249,7 @@
         <v>2025-01-01</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1275,10 +1275,10 @@
         <v>AM2</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="str">
         <v>Setup Fee</v>
@@ -1293,10 +1293,10 @@
         <v>Americas</v>
       </c>
       <c r="N18" t="str">
-        <v>2025-01-01</v>
+        <v>2025-02-15</v>
       </c>
       <c r="O18" t="str">
-        <v>2025-01-01</v>
+        <v>2025-02-15</v>
       </c>
       <c r="P18">
         <v>3</v>
@@ -1343,13 +1343,13 @@
         <v>Americas</v>
       </c>
       <c r="N19" t="str">
-        <v>2025-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="O19" t="str">
-        <v>2025-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1375,10 +1375,10 @@
         <v>CH2</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="str">
         <v>Setup Fee</v>
@@ -1393,13 +1393,13 @@
         <v>Americas</v>
       </c>
       <c r="N20" t="str">
-        <v>2025-01-01</v>
+        <v>2025-05-10</v>
       </c>
       <c r="O20" t="str">
-        <v>2025-01-01</v>
+        <v>2025-05-10</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1428,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="str">
         <v>Test Service Monthly</v>
@@ -1443,13 +1443,13 @@
         <v>Americas</v>
       </c>
       <c r="N21" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O21" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2057,7 +2057,7 @@
         <v>INV-33</v>
       </c>
       <c r="B34" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2093,10 +2093,10 @@
         <v>Americas</v>
       </c>
       <c r="N34" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O34" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P34" t="str">
         <v/>
@@ -2107,7 +2107,7 @@
         <v>INV-34</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         <v>Americas</v>
       </c>
       <c r="N35" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O35" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P35" t="str">
         <v/>
@@ -2157,7 +2157,7 @@
         <v>INV-35</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2193,10 +2193,10 @@
         <v>Americas</v>
       </c>
       <c r="N36" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O36" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P36" t="str">
         <v/>
@@ -2207,7 +2207,7 @@
         <v>INV-36</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2243,10 +2243,10 @@
         <v>Americas</v>
       </c>
       <c r="N37" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O37" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P37" t="str">
         <v/>
@@ -2257,7 +2257,7 @@
         <v>INV-37</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2293,10 +2293,10 @@
         <v>Americas</v>
       </c>
       <c r="N38" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O38" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P38" t="str">
         <v/>
@@ -2307,7 +2307,7 @@
         <v>INV-38</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2343,10 +2343,10 @@
         <v>Americas</v>
       </c>
       <c r="N39" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O39" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P39" t="str">
         <v/>
@@ -2357,7 +2357,7 @@
         <v>INV-39</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         <v>Americas</v>
       </c>
       <c r="N40" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O40" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P40" t="str">
         <v/>
@@ -2407,7 +2407,7 @@
         <v>INV-40</v>
       </c>
       <c r="B41" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2443,10 +2443,10 @@
         <v>Americas</v>
       </c>
       <c r="N41" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O41" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P41" t="str">
         <v/>
@@ -2457,7 +2457,7 @@
         <v>INV-41</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2493,10 +2493,10 @@
         <v>Americas</v>
       </c>
       <c r="N42" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O42" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P42" t="str">
         <v/>
@@ -2507,7 +2507,7 @@
         <v>INV-42</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2543,10 +2543,10 @@
         <v>Americas</v>
       </c>
       <c r="N43" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O43" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P43" t="str">
         <v/>
@@ -2557,7 +2557,7 @@
         <v>INV-43</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2593,10 +2593,10 @@
         <v>Americas</v>
       </c>
       <c r="N44" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O44" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P44" t="str">
         <v/>
@@ -2607,7 +2607,7 @@
         <v>INV-44</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2643,10 +2643,10 @@
         <v>Americas</v>
       </c>
       <c r="N45" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O45" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P45" t="str">
         <v/>
@@ -2657,7 +2657,7 @@
         <v>INV-45</v>
       </c>
       <c r="B46" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2693,10 +2693,10 @@
         <v>Americas</v>
       </c>
       <c r="N46" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O46" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P46" t="str">
         <v/>
@@ -2707,7 +2707,7 @@
         <v>INV-46</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>Americas</v>
       </c>
       <c r="N47" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O47" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P47" t="str">
         <v/>
@@ -2757,7 +2757,7 @@
         <v>INV-47</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         <v>Americas</v>
       </c>
       <c r="N48" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O48" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P48" t="str">
         <v/>
@@ -2807,7 +2807,7 @@
         <v>INV-48</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2843,10 +2843,10 @@
         <v>Americas</v>
       </c>
       <c r="N49" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O49" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P49" t="str">
         <v/>
@@ -2857,7 +2857,7 @@
         <v>INV-49</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2893,10 +2893,10 @@
         <v>Americas</v>
       </c>
       <c r="N50" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O50" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P50" t="str">
         <v/>
@@ -2907,7 +2907,7 @@
         <v>INV-50</v>
       </c>
       <c r="B51" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         <v>Americas</v>
       </c>
       <c r="N51" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O51" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P51" t="str">
         <v/>
@@ -2957,7 +2957,7 @@
         <v>INV-51</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2993,10 +2993,10 @@
         <v>Americas</v>
       </c>
       <c r="N52" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O52" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P52" t="str">
         <v/>
@@ -3007,7 +3007,7 @@
         <v>INV-52</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>INV-53</v>
       </c>
       <c r="B54" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>INV-54</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>INV-55</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>INV-56</v>
       </c>
       <c r="B57" t="str">
-        <v>2025-01-15</v>
+        <v>2025-06-15</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3243,10 +3243,10 @@
         <v>Americas</v>
       </c>
       <c r="N57" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="O57" t="str">
-        <v>2025-01-01</v>
+        <v>2025-06-01</v>
       </c>
       <c r="P57" t="str">
         <v/>

--- a/test-data/Base_Test_Invoice.xlsx
+++ b/test-data/Base_Test_Invoice.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,12 @@
       <c r="P1" t="str">
         <v>price_increase_percentage</v>
       </c>
+      <c r="Q1" t="str">
+        <v>billing_from</v>
+      </c>
+      <c r="R1" t="str">
+        <v>billing_till</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -501,6 +507,12 @@
       <c r="P2">
         <v>3</v>
       </c>
+      <c r="Q2" t="str">
+        <v>2025-02-01</v>
+      </c>
+      <c r="R2" t="str">
+        <v>2025-02-27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -551,6 +563,12 @@
       <c r="P3">
         <v>4</v>
       </c>
+      <c r="Q3" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="R3" t="str">
+        <v>2025-04-29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -601,6 +619,12 @@
       <c r="P4">
         <v>5</v>
       </c>
+      <c r="Q4" t="str">
+        <v>2025-05-01</v>
+      </c>
+      <c r="R4" t="str">
+        <v>2025-05-30</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -651,6 +675,12 @@
       <c r="P5">
         <v>2</v>
       </c>
+      <c r="Q5" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R5" t="str">
+        <v>2025-06-29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -701,6 +731,12 @@
       <c r="P6">
         <v>3</v>
       </c>
+      <c r="Q6" t="str">
+        <v>2025-08-01</v>
+      </c>
+      <c r="R6" t="str">
+        <v>2025-08-30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -751,6 +787,12 @@
       <c r="P7">
         <v>4</v>
       </c>
+      <c r="Q7" t="str">
+        <v>2025-09-01</v>
+      </c>
+      <c r="R7" t="str">
+        <v>2025-09-29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -801,6 +843,12 @@
       <c r="P8">
         <v>5</v>
       </c>
+      <c r="Q8" t="str">
+        <v>2025-11-01</v>
+      </c>
+      <c r="R8" t="str">
+        <v>2025-11-29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -851,6 +899,12 @@
       <c r="P9">
         <v>2</v>
       </c>
+      <c r="Q9" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R9" t="str">
+        <v>2025-01-30</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -901,6 +955,12 @@
       <c r="P10">
         <v>3</v>
       </c>
+      <c r="Q10" t="str">
+        <v>2025-02-01</v>
+      </c>
+      <c r="R10" t="str">
+        <v>2025-02-27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -951,6 +1011,12 @@
       <c r="P11">
         <v>4</v>
       </c>
+      <c r="Q11" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="R11" t="str">
+        <v>2025-04-29</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1001,6 +1067,12 @@
       <c r="P12">
         <v>5</v>
       </c>
+      <c r="Q12" t="str">
+        <v>2025-05-01</v>
+      </c>
+      <c r="R12" t="str">
+        <v>2025-05-30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1051,6 +1123,12 @@
       <c r="P13">
         <v>2</v>
       </c>
+      <c r="Q13" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R13" t="str">
+        <v>2025-06-29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1101,6 +1179,12 @@
       <c r="P14">
         <v>3</v>
       </c>
+      <c r="Q14" t="str">
+        <v>2025-08-01</v>
+      </c>
+      <c r="R14" t="str">
+        <v>2025-08-30</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1151,6 +1235,12 @@
       <c r="P15">
         <v>4</v>
       </c>
+      <c r="Q15" t="str">
+        <v>2025-09-01</v>
+      </c>
+      <c r="R15" t="str">
+        <v>2025-09-29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1201,6 +1291,12 @@
       <c r="P16">
         <v>5</v>
       </c>
+      <c r="Q16" t="str">
+        <v>2025-11-01</v>
+      </c>
+      <c r="R16" t="str">
+        <v>2025-11-29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1251,6 +1347,12 @@
       <c r="P17">
         <v>2</v>
       </c>
+      <c r="Q17" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R17" t="str">
+        <v>2025-01-30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1301,6 +1403,12 @@
       <c r="P18">
         <v>3</v>
       </c>
+      <c r="Q18" t="str">
+        <v>2025-02-01</v>
+      </c>
+      <c r="R18" t="str">
+        <v>2025-02-27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1351,6 +1459,12 @@
       <c r="P19">
         <v>4</v>
       </c>
+      <c r="Q19" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="R19" t="str">
+        <v>2025-04-29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1401,6 +1515,12 @@
       <c r="P20">
         <v>5</v>
       </c>
+      <c r="Q20" t="str">
+        <v>2025-05-01</v>
+      </c>
+      <c r="R20" t="str">
+        <v>2025-05-30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1451,6 +1571,12 @@
       <c r="P21">
         <v>2</v>
       </c>
+      <c r="Q21" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R21" t="str">
+        <v>2025-06-29</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1501,6 +1627,12 @@
       <c r="P22" t="str">
         <v/>
       </c>
+      <c r="Q22" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R22" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1551,6 +1683,12 @@
       <c r="P23" t="str">
         <v/>
       </c>
+      <c r="Q23" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R23" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1601,6 +1739,12 @@
       <c r="P24" t="str">
         <v/>
       </c>
+      <c r="Q24" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R24" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1651,6 +1795,12 @@
       <c r="P25" t="str">
         <v/>
       </c>
+      <c r="Q25" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R25" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1701,6 +1851,12 @@
       <c r="P26" t="str">
         <v/>
       </c>
+      <c r="Q26" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R26" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1751,6 +1907,12 @@
       <c r="P27" t="str">
         <v/>
       </c>
+      <c r="Q27" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R27" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1801,6 +1963,12 @@
       <c r="P28" t="str">
         <v/>
       </c>
+      <c r="Q28" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R28" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1851,6 +2019,12 @@
       <c r="P29" t="str">
         <v/>
       </c>
+      <c r="Q29" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R29" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1901,6 +2075,12 @@
       <c r="P30" t="str">
         <v/>
       </c>
+      <c r="Q30" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R30" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1951,6 +2131,12 @@
       <c r="P31" t="str">
         <v/>
       </c>
+      <c r="Q31" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R31" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -2001,6 +2187,12 @@
       <c r="P32" t="str">
         <v/>
       </c>
+      <c r="Q32" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R32" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -2051,6 +2243,12 @@
       <c r="P33" t="str">
         <v/>
       </c>
+      <c r="Q33" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="R33" t="str">
+        <v>2025-01-31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -2101,6 +2299,12 @@
       <c r="P34" t="str">
         <v/>
       </c>
+      <c r="Q34" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R34" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -2151,6 +2355,12 @@
       <c r="P35" t="str">
         <v/>
       </c>
+      <c r="Q35" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R35" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -2201,6 +2411,12 @@
       <c r="P36" t="str">
         <v/>
       </c>
+      <c r="Q36" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R36" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -2251,6 +2467,12 @@
       <c r="P37" t="str">
         <v/>
       </c>
+      <c r="Q37" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R37" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -2301,6 +2523,12 @@
       <c r="P38" t="str">
         <v/>
       </c>
+      <c r="Q38" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R38" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -2351,6 +2579,12 @@
       <c r="P39" t="str">
         <v/>
       </c>
+      <c r="Q39" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R39" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -2401,6 +2635,12 @@
       <c r="P40" t="str">
         <v/>
       </c>
+      <c r="Q40" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R40" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -2451,6 +2691,12 @@
       <c r="P41" t="str">
         <v/>
       </c>
+      <c r="Q41" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R41" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -2501,6 +2747,12 @@
       <c r="P42" t="str">
         <v/>
       </c>
+      <c r="Q42" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R42" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -2551,6 +2803,12 @@
       <c r="P43" t="str">
         <v/>
       </c>
+      <c r="Q43" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R43" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -2601,6 +2859,12 @@
       <c r="P44" t="str">
         <v/>
       </c>
+      <c r="Q44" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R44" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -2651,6 +2915,12 @@
       <c r="P45" t="str">
         <v/>
       </c>
+      <c r="Q45" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R45" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -2701,6 +2971,12 @@
       <c r="P46" t="str">
         <v/>
       </c>
+      <c r="Q46" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R46" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -2751,6 +3027,12 @@
       <c r="P47" t="str">
         <v/>
       </c>
+      <c r="Q47" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R47" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -2801,6 +3083,12 @@
       <c r="P48" t="str">
         <v/>
       </c>
+      <c r="Q48" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R48" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -2851,6 +3139,12 @@
       <c r="P49" t="str">
         <v/>
       </c>
+      <c r="Q49" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R49" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -2901,6 +3195,12 @@
       <c r="P50" t="str">
         <v/>
       </c>
+      <c r="Q50" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R50" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -2951,6 +3251,12 @@
       <c r="P51" t="str">
         <v/>
       </c>
+      <c r="Q51" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R51" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -3001,6 +3307,12 @@
       <c r="P52" t="str">
         <v/>
       </c>
+      <c r="Q52" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R52" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -3051,6 +3363,12 @@
       <c r="P53" t="str">
         <v/>
       </c>
+      <c r="Q53" t="str">
+        <v/>
+      </c>
+      <c r="R53" t="str">
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -3101,6 +3419,12 @@
       <c r="P54" t="str">
         <v/>
       </c>
+      <c r="Q54" t="str">
+        <v/>
+      </c>
+      <c r="R54" t="str">
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -3151,6 +3475,12 @@
       <c r="P55" t="str">
         <v/>
       </c>
+      <c r="Q55" t="str">
+        <v/>
+      </c>
+      <c r="R55" t="str">
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -3201,6 +3531,12 @@
       <c r="P56" t="str">
         <v/>
       </c>
+      <c r="Q56" t="str">
+        <v/>
+      </c>
+      <c r="R56" t="str">
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -3251,10 +3587,16 @@
       <c r="P57" t="str">
         <v/>
       </c>
+      <c r="Q57" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="R57" t="str">
+        <v>2025-06-30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-data/Base_Test_Invoice.xlsx
+++ b/test-data/Base_Test_Invoice.xlsx
@@ -2279,7 +2279,7 @@
         <v/>
       </c>
       <c r="J34" t="str">
-        <v>AC Power kVA</v>
+        <v>AC Power kVA Standard</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -2335,7 +2335,7 @@
         <v/>
       </c>
       <c r="J35" t="str">
-        <v>Metered Power Charges kVA</v>
+        <v>Metered Power Charges kVA Standard</v>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -2391,7 +2391,7 @@
         <v/>
       </c>
       <c r="J36" t="str">
-        <v>Power Cord kVA</v>
+        <v>Power Cord kVA Standard</v>
       </c>
       <c r="K36" t="str">
         <v/>
@@ -2429,10 +2429,10 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F37" t="str">
         <v>PO-RC</v>
@@ -2447,7 +2447,7 @@
         <v/>
       </c>
       <c r="J37" t="str">
-        <v>Smart Hands NRC</v>
+        <v>AC Power Monthly Charge</v>
       </c>
       <c r="K37" t="str">
         <v/>
@@ -2485,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E38">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F38" t="str">
         <v>PO-RC</v>
@@ -2503,7 +2503,7 @@
         <v/>
       </c>
       <c r="J38" t="str">
-        <v>Cabinet Installation</v>
+        <v>Smart Hands NRC</v>
       </c>
       <c r="K38" t="str">
         <v/>
@@ -2559,7 +2559,7 @@
         <v/>
       </c>
       <c r="J39" t="str">
-        <v>Cage Installation</v>
+        <v>Cabinet Installation</v>
       </c>
       <c r="K39" t="str">
         <v/>
@@ -2615,7 +2615,7 @@
         <v/>
       </c>
       <c r="J40" t="str">
-        <v>Cross Connect Single-Mode Fiber</v>
+        <v>Cage Installation</v>
       </c>
       <c r="K40" t="str">
         <v/>
@@ -2671,7 +2671,7 @@
         <v/>
       </c>
       <c r="J41" t="str">
-        <v>Equinix Precision Time Standard NTP</v>
+        <v>Cross Connect Single-Mode Fiber</v>
       </c>
       <c r="K41" t="str">
         <v/>
@@ -2709,10 +2709,10 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F42" t="str">
         <v>PO-RC</v>
@@ -2727,7 +2727,7 @@
         <v/>
       </c>
       <c r="J42" t="str">
-        <v>AC Power kVA</v>
+        <v>Equinix Precision Time Standard NTP</v>
       </c>
       <c r="K42" t="str">
         <v/>
@@ -2765,10 +2765,10 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F43" t="str">
         <v>PO-RC</v>
@@ -2783,7 +2783,7 @@
         <v/>
       </c>
       <c r="J43" t="str">
-        <v>Metered Power Charges kVA</v>
+        <v>Secure Cabinet kVA Standard</v>
       </c>
       <c r="K43" t="str">
         <v/>
@@ -2821,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F44" t="str">
         <v>PO-RC</v>
@@ -2839,7 +2839,7 @@
         <v/>
       </c>
       <c r="J44" t="str">
-        <v>Power Cord kVA</v>
+        <v>AC Circuit 30A 208V</v>
       </c>
       <c r="K44" t="str">
         <v/>
@@ -2877,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E45">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F45" t="str">
         <v>PO-RC</v>
@@ -2895,7 +2895,7 @@
         <v/>
       </c>
       <c r="J45" t="str">
-        <v>Smart Hands NRC</v>
+        <v>Draw Cap Overage Charge kVA Standard</v>
       </c>
       <c r="K45" t="str">
         <v/>
@@ -2951,7 +2951,7 @@
         <v/>
       </c>
       <c r="J46" t="str">
-        <v>Cabinet Installation</v>
+        <v>Extended Cross Connect Multi-Mode Fiber</v>
       </c>
       <c r="K46" t="str">
         <v/>
@@ -3007,7 +3007,7 @@
         <v/>
       </c>
       <c r="J47" t="str">
-        <v>Cage Installation</v>
+        <v>DC Circuit 30 208</v>
       </c>
       <c r="K47" t="str">
         <v/>
@@ -3045,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F48" t="str">
         <v>PO-RC</v>
@@ -3063,7 +3063,7 @@
         <v/>
       </c>
       <c r="J48" t="str">
-        <v>Cross Connect Single-Mode Fiber</v>
+        <v>AC Power kVA Standard</v>
       </c>
       <c r="K48" t="str">
         <v/>
@@ -3101,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F49" t="str">
         <v>PO-RC</v>
@@ -3119,7 +3119,7 @@
         <v/>
       </c>
       <c r="J49" t="str">
-        <v>Equinix Precision Time Standard NTP</v>
+        <v>Metered Power Charges kVA Standard</v>
       </c>
       <c r="K49" t="str">
         <v/>
@@ -3175,7 +3175,7 @@
         <v/>
       </c>
       <c r="J50" t="str">
-        <v>AC Power kVA</v>
+        <v>Power Cord kVA Standard</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -3231,7 +3231,7 @@
         <v/>
       </c>
       <c r="J51" t="str">
-        <v>Metered Power Charges kVA</v>
+        <v>AC Power Monthly Charge</v>
       </c>
       <c r="K51" t="str">
         <v/>
@@ -3269,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="F52" t="str">
         <v>PO-RC</v>
@@ -3287,7 +3287,7 @@
         <v/>
       </c>
       <c r="J52" t="str">
-        <v>Power Cord kVA</v>
+        <v>Smart Hands NRC</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -3325,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E53">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F53" t="str">
         <v>PO-RC</v>
@@ -3343,7 +3343,7 @@
         <v/>
       </c>
       <c r="J53" t="str">
-        <v>Smart Hands NRC</v>
+        <v>Cabinet Installation</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -3399,7 +3399,7 @@
         <v/>
       </c>
       <c r="J54" t="str">
-        <v>Cabinet Installation</v>
+        <v>Cage Installation</v>
       </c>
       <c r="K54" t="str">
         <v/>
@@ -3455,7 +3455,7 @@
         <v/>
       </c>
       <c r="J55" t="str">
-        <v>Cage Installation</v>
+        <v>Cross Connect Single-Mode Fiber</v>
       </c>
       <c r="K55" t="str">
         <v/>
@@ -3511,7 +3511,7 @@
         <v/>
       </c>
       <c r="J56" t="str">
-        <v>Cross Connect Single-Mode Fiber</v>
+        <v>Equinix Precision Time Standard NTP</v>
       </c>
       <c r="K56" t="str">
         <v/>
